--- a/Hydro/climate data/data/generacionBruta.xlsx
+++ b/Hydro/climate data/data/generacionBruta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CFE" sheetId="1" state="visible" r:id="rId2"/>
@@ -939,13 +939,13 @@
   <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="169" min="3" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="170" min="170" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="873" min="171" style="1" width="11.6761133603239"/>
